--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F8-Asgr2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F8-Asgr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -543,51 +543,51 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.215362</v>
+        <v>1.201625666666667</v>
       </c>
       <c r="H2">
-        <v>6.646086</v>
+        <v>3.604877</v>
       </c>
       <c r="I2">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="J2">
-        <v>0.6679730466413231</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.8482770000000001</v>
+        <v>0.05382133333333333</v>
       </c>
       <c r="N2">
-        <v>2.544831</v>
+        <v>0.161464</v>
       </c>
       <c r="O2">
-        <v>0.499578618185673</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.4995786181856731</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>1.879240631274</v>
+        <v>0.06467309554755556</v>
       </c>
       <c r="R2">
-        <v>16.913165681466</v>
+        <v>0.582057859928</v>
       </c>
       <c r="S2">
-        <v>0.3337050516263463</v>
+        <v>0.5773905987672731</v>
       </c>
       <c r="T2">
-        <v>0.3337050516263463</v>
+        <v>0.5773905987672731</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>26</v>
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,51 +605,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.215362</v>
+        <v>0.336951</v>
       </c>
       <c r="H3">
-        <v>6.646086</v>
+        <v>1.010853</v>
       </c>
       <c r="I3">
-        <v>0.6679730466413231</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="J3">
-        <v>0.6679730466413231</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.849708</v>
+        <v>0.05382133333333333</v>
       </c>
       <c r="N3">
-        <v>2.549124</v>
+        <v>0.161464</v>
       </c>
       <c r="O3">
-        <v>0.5004213818143269</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.5004213818143269</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>1.882410814296</v>
+        <v>0.018135152088</v>
       </c>
       <c r="R3">
-        <v>16.941697328664</v>
+        <v>0.163216368792</v>
       </c>
       <c r="S3">
-        <v>0.3342679950149767</v>
+        <v>0.1619076098673254</v>
       </c>
       <c r="T3">
-        <v>0.3342679950149767</v>
+        <v>0.1619076098673254</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>26</v>
@@ -661,57 +661,57 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.336951</v>
+        <v>0.09799933333333333</v>
       </c>
       <c r="H4">
-        <v>1.010853</v>
+        <v>0.293998</v>
       </c>
       <c r="I4">
-        <v>0.1015970238899288</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="J4">
-        <v>0.1015970238899288</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.8482770000000001</v>
+        <v>0.05382133333333333</v>
       </c>
       <c r="N4">
-        <v>2.544831</v>
+        <v>0.161464</v>
       </c>
       <c r="O4">
-        <v>0.499578618185673</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.4995786181856731</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.285827783427</v>
+        <v>0.005274454785777778</v>
       </c>
       <c r="R4">
-        <v>2.572450050843</v>
+        <v>0.04747009307199999</v>
       </c>
       <c r="S4">
-        <v>0.05075570080670743</v>
+        <v>0.04708945166683377</v>
       </c>
       <c r="T4">
-        <v>0.05075570080670744</v>
+        <v>0.04708945166683377</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,51 +729,51 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.336951</v>
+        <v>0.1834403333333333</v>
       </c>
       <c r="H5">
-        <v>1.010853</v>
+        <v>0.5503209999999999</v>
       </c>
       <c r="I5">
-        <v>0.1015970238899288</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="J5">
-        <v>0.1015970238899288</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.849708</v>
+        <v>0.05382133333333333</v>
       </c>
       <c r="N5">
-        <v>2.549124</v>
+        <v>0.161464</v>
       </c>
       <c r="O5">
-        <v>0.5004213818143269</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.5004213818143269</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.286309960308</v>
+        <v>0.009873003327111111</v>
       </c>
       <c r="R5">
-        <v>2.576789642772</v>
+        <v>0.08885702994399999</v>
       </c>
       <c r="S5">
-        <v>0.05084132308322135</v>
+        <v>0.08814452523739491</v>
       </c>
       <c r="T5">
-        <v>0.05084132308322136</v>
+        <v>0.08814452523739491</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -785,57 +785,57 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.07524500000000001</v>
+        <v>0.181226</v>
       </c>
       <c r="H6">
-        <v>0.225735</v>
+        <v>0.543678</v>
       </c>
       <c r="I6">
-        <v>0.02268777377896991</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="J6">
-        <v>0.02268777377896992</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.8482770000000001</v>
+        <v>0.05382133333333333</v>
       </c>
       <c r="N6">
-        <v>2.544831</v>
+        <v>0.161464</v>
       </c>
       <c r="O6">
-        <v>0.499578618185673</v>
+        <v>1</v>
       </c>
       <c r="P6">
-        <v>0.4995786181856731</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.06382860286500001</v>
+        <v>0.009753824954666666</v>
       </c>
       <c r="R6">
-        <v>0.5744574257850001</v>
+        <v>0.08778442459199999</v>
       </c>
       <c r="S6">
-        <v>0.01133432667420693</v>
+        <v>0.08708052062708199</v>
       </c>
       <c r="T6">
-        <v>0.01133432667420694</v>
+        <v>0.08708052062708199</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -853,418 +853,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.07524500000000001</v>
+        <v>0.079889</v>
       </c>
       <c r="H7">
-        <v>0.225735</v>
+        <v>0.239667</v>
       </c>
       <c r="I7">
-        <v>0.02268777377896991</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="J7">
-        <v>0.02268777377896992</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="K7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.849708</v>
+        <v>0.05382133333333333</v>
       </c>
       <c r="N7">
-        <v>2.549124</v>
+        <v>0.161464</v>
       </c>
       <c r="O7">
-        <v>0.5004213818143269</v>
+        <v>1</v>
       </c>
       <c r="P7">
-        <v>0.5004213818143269</v>
+        <v>1</v>
       </c>
       <c r="Q7">
-        <v>0.06393627846000001</v>
+        <v>0.004299732498666667</v>
       </c>
       <c r="R7">
-        <v>0.57542650614</v>
+        <v>0.038697592488</v>
       </c>
       <c r="S7">
-        <v>0.01135344710476298</v>
+        <v>0.03838729383409088</v>
       </c>
       <c r="T7">
-        <v>0.01135344710476298</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.5056503333333333</v>
-      </c>
-      <c r="H8">
-        <v>1.516951</v>
-      </c>
-      <c r="I8">
-        <v>0.1524630257681892</v>
-      </c>
-      <c r="J8">
-        <v>0.1524630257681892</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>0.8482770000000001</v>
-      </c>
-      <c r="N8">
-        <v>2.544831</v>
-      </c>
-      <c r="O8">
-        <v>0.499578618185673</v>
-      </c>
-      <c r="P8">
-        <v>0.4995786181856731</v>
-      </c>
-      <c r="Q8">
-        <v>0.428931547809</v>
-      </c>
-      <c r="R8">
-        <v>3.860383930281</v>
-      </c>
-      <c r="S8">
-        <v>0.07616726773767861</v>
-      </c>
-      <c r="T8">
-        <v>0.07616726773767862</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.5056503333333333</v>
-      </c>
-      <c r="H9">
-        <v>1.516951</v>
-      </c>
-      <c r="I9">
-        <v>0.1524630257681892</v>
-      </c>
-      <c r="J9">
-        <v>0.1524630257681892</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>0.849708</v>
-      </c>
-      <c r="N9">
-        <v>2.549124</v>
-      </c>
-      <c r="O9">
-        <v>0.5004213818143269</v>
-      </c>
-      <c r="P9">
-        <v>0.5004213818143269</v>
-      </c>
-      <c r="Q9">
-        <v>0.429655133436</v>
-      </c>
-      <c r="R9">
-        <v>3.866896200924</v>
-      </c>
-      <c r="S9">
-        <v>0.07629575803051057</v>
-      </c>
-      <c r="T9">
-        <v>0.07629575803051059</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.140989</v>
-      </c>
-      <c r="H10">
-        <v>0.4229669999999999</v>
-      </c>
-      <c r="I10">
-        <v>0.04251081849057331</v>
-      </c>
-      <c r="J10">
-        <v>0.04251081849057332</v>
-      </c>
-      <c r="K10">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.8482770000000001</v>
-      </c>
-      <c r="N10">
-        <v>2.544831</v>
-      </c>
-      <c r="O10">
-        <v>0.499578618185673</v>
-      </c>
-      <c r="P10">
-        <v>0.4995786181856731</v>
-      </c>
-      <c r="Q10">
-        <v>0.119597725953</v>
-      </c>
-      <c r="R10">
-        <v>1.076379533577</v>
-      </c>
-      <c r="S10">
-        <v>0.02123749595946257</v>
-      </c>
-      <c r="T10">
-        <v>0.02123749595946258</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
-      <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="B11" t="s">
-        <v>26</v>
-      </c>
-      <c r="C11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>0.140989</v>
-      </c>
-      <c r="H11">
-        <v>0.4229669999999999</v>
-      </c>
-      <c r="I11">
-        <v>0.04251081849057331</v>
-      </c>
-      <c r="J11">
-        <v>0.04251081849057332</v>
-      </c>
-      <c r="K11">
-        <v>3</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>0.849708</v>
-      </c>
-      <c r="N11">
-        <v>2.549124</v>
-      </c>
-      <c r="O11">
-        <v>0.5004213818143269</v>
-      </c>
-      <c r="P11">
-        <v>0.5004213818143269</v>
-      </c>
-      <c r="Q11">
-        <v>0.119799481212</v>
-      </c>
-      <c r="R11">
-        <v>1.078195330908</v>
-      </c>
-      <c r="S11">
-        <v>0.02127332253111074</v>
-      </c>
-      <c r="T11">
-        <v>0.02127332253111074</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
-      <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B12" t="s">
-        <v>26</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>22</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G12">
-        <v>0.04234666666666667</v>
-      </c>
-      <c r="H12">
-        <v>0.12704</v>
-      </c>
-      <c r="I12">
-        <v>0.01276831143101574</v>
-      </c>
-      <c r="J12">
-        <v>0.01276831143101574</v>
-      </c>
-      <c r="K12">
-        <v>3</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>0.8482770000000001</v>
-      </c>
-      <c r="N12">
-        <v>2.544831</v>
-      </c>
-      <c r="O12">
-        <v>0.499578618185673</v>
-      </c>
-      <c r="P12">
-        <v>0.4995786181856731</v>
-      </c>
-      <c r="Q12">
-        <v>0.03592170336000001</v>
-      </c>
-      <c r="R12">
-        <v>0.3232953302400001</v>
-      </c>
-      <c r="S12">
-        <v>0.006378775381271177</v>
-      </c>
-      <c r="T12">
-        <v>0.006378775381271178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20">
-      <c r="A13" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
-      </c>
-      <c r="D13" t="s">
-        <v>25</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G13">
-        <v>0.04234666666666667</v>
-      </c>
-      <c r="H13">
-        <v>0.12704</v>
-      </c>
-      <c r="I13">
-        <v>0.01276831143101574</v>
-      </c>
-      <c r="J13">
-        <v>0.01276831143101574</v>
-      </c>
-      <c r="K13">
-        <v>3</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.849708</v>
-      </c>
-      <c r="N13">
-        <v>2.549124</v>
-      </c>
-      <c r="O13">
-        <v>0.5004213818143269</v>
-      </c>
-      <c r="P13">
-        <v>0.5004213818143269</v>
-      </c>
-      <c r="Q13">
-        <v>0.03598230144</v>
-      </c>
-      <c r="R13">
-        <v>0.3238407129600001</v>
-      </c>
-      <c r="S13">
-        <v>0.006389536049744563</v>
-      </c>
-      <c r="T13">
-        <v>0.006389536049744565</v>
+        <v>0.03838729383409088</v>
       </c>
     </row>
   </sheetData>
